--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R218af518811641d0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R7aaa7d4c81c2407c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R58efaaa380a246bb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra6667c26178e4d92"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9c971de3c49949e3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R168575cabb994b6d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R7aaa7d4c81c2407c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Reae2b27512e04f93"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra6667c26178e4d92"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcc9d8a0d197c43cb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R168575cabb994b6d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6ee2a995f51f43e2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Reae2b27512e04f93"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Re767f7fafa9b486b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcc9d8a0d197c43cb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R01f3b8c80464456d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6ee2a995f51f43e2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rafda468b7fd74489"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Re767f7fafa9b486b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R32ca521e25904223"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R01f3b8c80464456d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R615a207cf4774969"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rafda468b7fd74489"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb1c523b2b6144544"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R32ca521e25904223"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R9ad5b01e0a1a40c9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R615a207cf4774969"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R58e873a7a8e84d69"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb1c523b2b6144544"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23231001e75d4c73"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R9ad5b01e0a1a40c9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Recfd1006577a47cc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R58e873a7a8e84d69"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4e050e1e10994047"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R23231001e75d4c73"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8c0c83f9e7f04f0b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Recfd1006577a47cc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R5a0c103441004d33"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4e050e1e10994047"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R27941c4641e84ea8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8c0c83f9e7f04f0b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0e6fb5863e72460c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R5a0c103441004d33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R620709c20f1d4393"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R27941c4641e84ea8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R92ab13940f884993"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0e6fb5863e72460c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb9389e544c4b4af9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="R620709c20f1d4393"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Ra10feeeddc9e4fb8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R92ab13940f884993"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R44d5d7dc22b041df"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb9389e544c4b4af9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2edbca26f8534adf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Ra10feeeddc9e4fb8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rcc3efa972fba4073"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R44d5d7dc22b041df"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0bcd4d0389354673"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2edbca26f8534adf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6ace5a1662e545a5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rcc3efa972fba4073"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rd046e72451a54a7e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0bcd4d0389354673"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1b17752c55364685"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6ace5a1662e545a5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7ec619ff56564dd8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/103_LineChartWithCustomColor.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Rd046e72451a54a7e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="1" r:id="Re0b45457b88a45f1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -230,7 +230,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1b17752c55364685"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdb6f5f0242ae482c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -315,6 +315,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7ec619ff56564dd8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb1c70409eee0410c"/>
 </x:worksheet>
 </file>